--- a/model_responses.xlsx
+++ b/model_responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youzhou/Documents/2025/llmeval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF845D6-5EA9-E648-950F-BD59865ADAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872D681-2EA7-9B43-84E6-6C649D73ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29920" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33640" yWindow="2260" windowWidth="29920" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,129 +20,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DeepSeek-V3</t>
   </si>
   <si>
+    <t>DeepSeek-R1-Distill-Llama-70B</t>
+  </si>
+  <si>
+    <t>DeepSeek-R1-Distill-Qwen-32B</t>
+  </si>
+  <si>
+    <t>DeepSeek-R1-Distill-Qwen-14B</t>
+  </si>
+  <si>
+    <t>DeepSeek-R1评估</t>
+  </si>
+  <si>
     <t>谁被称为现代物理学之父？</t>
   </si>
   <si>
-    <t>{"id":"0194e880b1cba3427156a02970370e2f","object":"chat.completion","created":1739067535,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"现代物理学之父通常被认为是艾萨克·牛顿（Isaac Newton）。他在17世纪提出了经典力学的基本定律，包括万有引力定律和运动三定律，这些理论奠定了现代物理学的基础。然而，也有人认为阿尔伯特·爱因斯坦（Albert Einstein）因其在相对论和量子力学方面的贡献而被称为现代物理学之父。这两位科学家都对物理学的发展产生了深远的影响。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":58,"completion_tokens":76,"total_tokens":134},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>法国的首都是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e880cb0ae045827267f0302aba6b","object":"chat.completion","created":1739067542,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"法国的首都是巴黎。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":57,"completion_tokens":5,"total_tokens":62},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>写一个关于神秘冒险的短篇故事。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e880cdcd7d916465a77a638c724f","object":"chat.completion","created":1739067543,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"在一个遥远的古老村庄，隐藏着一个被遗忘的秘密。这个秘密与一个传说中的宝藏有关，据说只有最勇敢的探险家才能找到它。故事的主人公，艾莉丝，是一个对未知充满好奇的年轻女子。她从小听着关于宝藏的传说长大，心中一直怀揣着探险的梦想。\n\n一天，艾莉丝在村庄的古老图书馆中发现了一本尘封已久的日记。日记的主人是几百年前的一位探险家，他在日记中详细记录了寻找宝藏的线索。艾莉丝意识到，这可能是她实现梦想的机会。\n\n带着日记和一颗勇敢的心，艾莉丝踏上了寻找宝藏的旅程。她的第一站是村庄外的迷雾森林。根据日记的描述，森林中隐藏着通往宝藏的第一道线索。艾莉丝小心翼翼地穿过森林，最终在一棵古老的橡树下发现了一块刻有神秘符号的石板。\n\n石板上的符号似乎是一种古老的语言，艾莉丝决定回到村庄寻求帮助。在村庄的长者帮助下，她解读了符号的含义：“月圆之夜，瀑布之后。”这显然是下一个线索的位置。\n\n月圆之夜到来时，艾莉丝来到了村庄附近的瀑布。在月光下，她发现瀑布后面隐藏着一个洞穴。洞穴内部布满了复杂的机关和谜题，艾莉丝凭借智慧和勇气一一解开。\n\n最终，艾莉丝来到了洞穴的最深处，那里放着一个古老的宝箱。宝箱中装满了珍贵的宝石和金币，但最让艾莉丝惊喜的是宝箱底部的一封信。信中写道：“真正的宝藏不是金银财宝，而是你在这段旅程中展现出的勇气和智慧。”\n\n艾莉丝明白了信中的含义，她将宝箱中的财宝留在了洞穴中，只带走了那封信作为纪念。回到村庄后，她将自己的冒险经历告诉了村民们，激励他们也去追寻自己的梦想。\n\n从此以后，艾莉丝成为了村庄中的传奇人物。她的故事激励着一代又一代的人去探索未知的世界，寻找属于自己的“宝藏”。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":62,"completion_tokens":402,"total_tokens":464},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>简单解释引力波的概念。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8811f7a6dbefb7502211780c948","object":"chat.completion","created":1739067563,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"引力波是爱因斯坦广义相对论预言的一种现象，它是由宇宙中的大质量物体（如黑洞或中子星）加速运动时产生的时空涟漪。这些涟漪以光速传播，携带着关于其源头的信息，如质量和速度等。\n\n简单来说，当两个大质量物体（如黑洞）相互绕转并最终碰撞合并时，它们会剧烈地扭曲周围的时空结构，产生引力波。这些波在宇宙中传播，当它们到达地球时，可以被特殊的探测器检测到。\n\n引力波的发现为科学家提供了一种全新的方式来观察宇宙，使我们能够探测到传统电磁波望远镜无法观测到的现象，如黑洞的合并等。这不仅验证了爱因斯坦的理论，也开启了引力波天文学的新纪元。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":58,"completion_tokens":151,"total_tokens":209},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>什么是勾股定理，如何使用它？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8819f849373e280a49c1a263828","object":"chat.completion","created":1739067596,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"勾股定理，又称毕达哥拉斯定理，是几何学中的一个基本定理。它描述了直角三角形三边之间的关系。具体来说，勾股定理指出：在直角三角形中，直角边的平方和等于斜边的平方。如果用公式表示，就是：\n\n\\[ a^2 + b^2 = c^2 \\]\n\n其中：\n- \\( a \\) 和 \\( b \\) 是直角三角形的两条直角边。\n- \\( c \\) 是直角三角形的斜边（即与直角相对的那条边）。\n\n### 如何使用勾股定理\n\n1. **已知两条直角边求斜边**：\n   - 如果你知道两条直角边的长度 \\( a \\) 和 \\( b \\)，你可以用勾股定理求出斜边的长度 \\( c \\)。\n   - 计算步骤：\n     \\[ c = \\sqrt{a^2 + b^2} \\]\n\n2. **已知斜边和一条直角边求另一条直角边**：\n   - 如果你知道斜边的长度 \\( c \\) 和一条直角边的长度 \\( a \\)，你可以用勾股定理求出另一条直角边的长度 \\( b \\)。\n   - 计算步骤：\n     \\[ b = \\sqrt{c^2 - a^2} \\]\n\n### 例子\n\n假设有一个直角三角形，两条直角边的长度分别是3和4，求斜边的长度。\n\n根据勾股定理：\n\\[ c = \\sqrt{3^2 + 4^2} = \\sqrt{9 + 16} = \\sqrt{25} = 5 \\]\n\n所以，斜边的长度是5。\n\n### 应用\n\n勾股定理在日常生活中有很多应用，比如在建筑、工程、物理等领域中计算距离、设计结构等。它也是许多其他数学定理和公式的基础。\n\n希望这个解释对你有帮助！如果你有其他问题，随时问我。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":60,"completion_tokens":374,"total_tokens":434},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>如果所有单身汉都是未婚的，约翰是单身汉，那么约翰是未婚的吗？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e881e63d5c3f42a9f4cca6c55ad3","object":"chat.completion","created":1739067614,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"是的，根据给定的信息，如果所有单身汉都是未婚的，而约翰是单身汉，那么约翰是未婚的。这是一个典型的逻辑推理问题，结论直接由前提得出。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":71,"completion_tokens":38,"total_tokens":109},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>函数 f(x) = 3x^2 + 2x + 1 的导数是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e881eff7e0e0abb3151c3c905381","object":"chat.completion","created":1739067617,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"要计算函数 \\( f(x) = 3x^2 + 2x + 1 \\) 的导数，我们可以使用基本的微分规则。具体步骤如下：\n\n1. 对 \\( 3x^2 \\) 求导，得到 \\( 6x \\)。\n2. 对 \\( 2x \\) 求导，得到 \\( 2 \\)。\n3. 对常数项 \\( 1 \\) 求导，得到 \\( 0 \\)。\n\n将这些结果相加，我们得到函数的导数：\n\n\\[ f'(x) = 6x + 2 \\]\n\n因此，函数 \\( f(x) = 3x^2 + 2x + 1 \\) 的导数是 \\( f'(x) = 6x + 2 \\)。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":74,"completion_tokens":157,"total_tokens":231},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>7乘以9的结果是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8820a1146b3d6a4281701701ada","object":"chat.completion","created":1739067623,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"","tool_calls":[{"id":"0194e8820e25b43b689b45e297923907","type":"function","function":{"name":"\u003cinteger\u003e","arguments":"{\"result\":63}"}}]},"finish_reason":"tool_calls"}],"usage":{"prompt_tokens":58,"completion_tokens":18,"total_tokens":76},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>谁写了小说《1984》？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8820ecdbaa22b8291e070315b40","object":"chat.completion","created":1739067625,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"小说《1984》是由乔治·奥威尔（George Orwell）所著。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":60,"completion_tokens":17,"total_tokens":77},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>水的化学式是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e882147e9a0fa7962927033c3cdf","object":"chat.completion","created":1739067626,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"水的化学式是 \\( H_2O \\)。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":57,"completion_tokens":11,"total_tokens":68},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>构造一个逻辑论证，证明所有的正方形都是矩形。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8821866d95424177225a7fb7696","object":"chat.completion","created":1739067627,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"要证明所有的正方形都是矩形，我们可以从正方形和矩形的定义出发，逐步构建逻辑论证。\n\n### 定义\n\n1. **矩形**：在几何学中，矩形是一种四边形，其四个角都是直角（90度），且对边相等。\n2. **正方形**：正方形是一种特殊的矩形，其四条边长度相等。\n\n### 逻辑论证\n\n1. **正方形的四个角都是直角**：根据正方形的定义，正方形的四个角都是直角。\n2. **正方形的对边相等**：根据正方形的定义，正方形的四条边长度相等，因此其对边必然相等。\n3. **正方形满足矩形的定义**：由于正方形的四个角都是直角，且对边相等，因此正方形满足矩形的所有条件。\n4. **结论**：因此，所有的正方形都是矩形。\n\n### 总结\n\n通过上述逻辑论证，我们可以得出结论：所有的正方形都是矩形。这是因为正方形不仅满足矩形的所有条件（四个角都是直角且对边相等），而且还具有额外的特性（四条边长度相等），这使得正方形成为矩形的一种特殊形式。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":63,"completion_tokens":217,"total_tokens":280},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>简要描述工业革命对社会的影响。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e8823caf83af23889ec6c039ac15","object":"chat.completion","created":1739067637,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"工业革命是18世纪末至19世纪初在英国开始的一场重大变革，随后逐渐扩展到全球。这场革命对社会产生了深远的影响，主要体现在以下几个方面：\n\n1. **经济结构的变化**：工业革命推动了从农业经济向工业经济的转变。工厂制度的兴起使得大规模生产成为可能，极大地提高了生产效率和产量。\n\n2. **城市化进程加速**：随着工厂的建立，大量人口从农村迁移到城市寻找工作机会，导致城市人口迅速增加，城市化进程加快。\n\n3. **社会阶级结构的变化**：工业革命催生了新的社会阶级，如工业资产阶级和工人阶级。工人阶级的生活条件普遍较差，劳动时间长、工资低、工作环境恶劣。\n\n4. **技术进步和创新**：工业革命期间出现了许多重要的技术发明和创新，如蒸汽机、纺织机械等，这些技术进步极大地推动了生产力的发展。\n\n5. **生活方式的改变**：随着工业化的发展，人们的生活方式也发生了显著变化。消费品的大量生产使得商品更加丰富和便宜，人们的生活水平有所提高。\n\n6. **环境影响**：工业革命带来了严重的环境问题，如空气和水污染、森林砍伐等，对自然生态系统造成了破坏。\n\n7. **全球化的开端**：工业革命促进了国际贸易和资本流动，为全球化的发展奠定了基础。\n\n总的来说，工业革命不仅改变了生产方式和经济结构，还深刻影响了社会结构、生活方式和全球关系，是现代社会发展的重要转折点。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":59,"completion_tokens":280,"total_tokens":339},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>你会如何解一个包含三个变量的线性方程组？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e88299a7e31c70884ab7f520ac0d","object":"chat.completion","created":1739067660,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"解一个包含三个变量的线性方程组通常可以使用以下几种方法：\n\n### 1. **代入法**\n   - **步骤**：\n     1. 从其中一个方程中解出一个变量，用其他两个变量表示。\n     2. 将这个表达式代入另外两个方程中，得到两个关于两个变量的方程。\n     3. 重复上述步骤，直到解出所有变量。\n\n### 2. **消元法**\n   - **步骤**：\n     1. 通过加减方程，消去一个变量，得到两个关于两个变量的方程。\n     2. 重复上述步骤，直到解出所有变量。\n\n### 3. **矩阵法（高斯消元法）**\n   - **步骤**：\n     1. 将方程组写成增广矩阵的形式。\n     2. 使用行变换将矩阵化为行阶梯形或简化行阶梯形。\n     3. 从最后一个方程开始，逐步回代求解各个变量。\n\n### 4. **克莱姆法则**\n   - **步骤**：\n     1. 计算系数矩阵的行列式。\n     2. 对于每个变量，替换系数矩阵的对应列为常数项，计算新的行列式。\n     3. 用新的行列式除以原行列式，得到该变量的值。\n\n### 示例\n假设我们有以下方程组：\n\\[\n\\begin{cases}\nx + y + z = 6 \\\\\n2x - y + z = 3 \\\\\nx + y - z = 0\n\\end{cases}\n\\]\n\n#### **代入法**：\n1. 从第三个方程解出 \\( z = x + y \\)。\n2. 将 \\( z = x + y \\) 代入第一个和第二个方程：\n   \\[\n   \\begin{cases}\n   x + y + (x + y) = 6 \\\\\n   2x - y + (x + y) = 3\n   \\end{cases}\n   \\]\n   化简得到：\n   \\[\n   \\begin{cases}\n   2x + 2y = 6 \\\\\n   3x = 3\n   \\end{cases}\n   \\]\n3. 从第二个方程解出 \\( x = 1 \\)。\n4. 将 \\( x = 1 \\) 代入第一个方程解出 \\( y = 2 \\)。\n5. 最后将 \\( x \\)和\\( y \\)的值代入 \\( z = x + y \\)得到 \\( z =3 \\)。\n\n#### **消元法**：\n1. 将第一个和第三个方程相加，消"},"finish_reason":"length"}],"usage":{"prompt_tokens":62,"completion_tokens":512,"total_tokens":574},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>写一篇关于人工智能伦理影响的文章。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e883526b318cc3f6960942838c5c","object":"chat.completion","created":1739067708,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"人工智能（AI）技术的快速发展正在深刻地改变我们的社会、经济和个人生活。从自动驾驶汽车到智能助手，AI的应用范围不断扩大，带来了前所未有的便利和效率提升。然而，随着AI技术的深入应用，其伦理影响也日益成为公众和学术界关注的焦点。本文旨在探讨人工智能的伦理影响，包括隐私保护、就业市场、决策透明度和责任归属等方面。\n\n### 隐私保护\n\nAI技术，尤其是机器学习和深度学习，依赖于大量的数据来进行训练和优化。这些数据往往包含个人信息，如消费习惯、健康状况和位置信息等。因此，AI的广泛应用引发了关于隐私保护的严重担忧。如何在利用数据提升AI性能的同时保护个人隐私，成为了一个亟待解决的问题。\n\n### 就业市场\n\nAI的自动化和智能化特性对就业市场产生了双重影响。一方面，AI可以提高生产效率，创造新的就业机会；另一方面，它也可能取代某些传统工作岗位，导致失业率上升。如何平衡技术进步与就业保障，是政策制定者需要考虑的重要问题。\n\n### 决策透明度\n\nAI系统的决策过程往往缺乏透明度，这被称为“黑箱”问题。在金融、医疗和法律等领域，AI的决策可能对个人和社会产生重大影响。缺乏透明度不仅可能损害用户的信任，还可能导致不公平或歧视性的结果。因此，提高AI决策的透明度是确保其公正性和可信度的关键。\n\n### 责任归属\n\n当AI系统出现错误或造成损害时，如何确定责任归属是一个复杂的法律和伦理问题。是开发者、运营者还是用户应该承担责任？这个问题在自动驾驶汽车等高风险应用中尤为重要。明确责任归属对于促进技术创新和保护公众利益至关重要。\n\n### 结论\n\n人工智能技术的发展带来了巨大的潜力和挑战。在享受其带来的便利和效率提升的同时，我们也必须认真考虑其伦理影响。通过制定合理的政策和规范，我们可以最大限度地发挥AI的积极作用，同时减少其潜在的负面影响。未来，跨学科的合作和国际社会的共同努力将是解决这些伦理问题的关键。\n\n为了更深入地探讨人工智能伦理影响的各个方面并获取最新的研究成果和政策建议，(在不使用工具的情况下)建议读者关注相关领域的学术期刊、专业会议和政策报告。这些资源可以提供更详细的信息和分析，帮助读者形成全面的理解并参与到这一重要议题的讨论中。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":60,"completion_tokens":446,"total_tokens":506},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>在数列2，4，8，16中的下一个数字是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e883cd40307f461e4a4848452da8","object":"chat.completion","created":1739067739,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"在数列2，4，8，16中，每个数字都是前一个数字乘以2。因此，下一个数字应该是16乘以2，即32。\n\n所以，数列的下一个数字是32。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":66,"completion_tokens":41,"total_tokens":107},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>125除以5的结果是什么？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e883f8d882a9ee2114f886ed36d8","object":"chat.completion","created":1739067750,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"125除以5的结果是25。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":58,"completion_tokens":7,"total_tokens":65},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>列举20世纪的三项重要发明及其影响。</t>
-  </si>
-  <si>
-    <t>{"id":"0194e883fac23311f7509351cad13b85","object":"chat.completion","created":1739067751,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"20世纪是人类历史上科技飞速发展的时期，许多重要的发明极大地改变了人们的生活方式和社会的面貌。以下是三项具有重大影响的发明及其影响：\n\n### 1. 互联网（Internet）\n- **发明时间**：20世纪60年代开始发展，90年代普及\n- **影响**：\n  - **信息传播**：互联网彻底改变了信息传播的方式，使得全球范围内的信息共享变得即时和便捷。\n  - **经济变革**：催生了电子商务、在线支付等新型商业模式，极大地推动了全球经济的发展。\n  - **社交互动**：社交媒体和即时通讯工具的出现，改变了人们的社交方式，使得跨地域的沟通变得更加容易。\n\n### 2. 个人电脑（Personal Computer, PC）\n- **发明时间**：20世纪70年代\n- **影响**：\n  - **工作效率**：个人电脑的普及极大地提高了工作效率，使得数据处理、文档编辑等工作变得更加高效。\n  - **教育普及**：电脑成为教育的重要工具，使得知识的获取和传播更加广泛和便捷。\n  - **娱乐方式**：电脑游戏、多媒体等娱乐形式的出现，丰富了人们的休闲生活。\n\n### 3. 抗生素（Antibiotics）\n- **发明时间**：20世纪40年代\n- **影响**：\n  - **医疗进步**：抗生素的发现和应用极大地提高了人类对抗细菌感染的能力，拯救了无数生命。\n  - **公共卫生**：抗生素的使用显著降低了传染病的发病率和死亡率，改善了公共卫生状况。\n  - **农业应用**：抗生素在农业中的应用也促进了畜牧业的发展，提高了食品供应的安全性。\n\n这些发明不仅在各自的领域内产生了深远的影响，还相互交织，共同推动了人类社会的进步。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":62,"completion_tokens":342,"total_tokens":404},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>解方程：2x + 5 = 15，x是多少？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e88446526287838dc7c561b92a4e","object":"chat.completion","created":1739067770,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"我们可以通过以下步骤来解这个方程：\n\n1. 从方程两边减去5：\n   2x + 5 - 5 = 15 - 5\n   2x = 10\n\n2. 将方程两边都除以2：\n   2x / 2 = 10 / 2\n   x = 5\n\n所以，方程的解是 x = 5。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":67,"completion_tokens":80,"total_tokens":147},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>“早起的鸟儿有虫吃”这句话是什么意思？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e884547746891a6c980443750adf","object":"chat.completion","created":1739067774,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"“早起的鸟儿有虫吃”是一句中国谚语，意思是那些早起的人或先行动的人更容易获得成功或机会。这句话比喻了勤奋和积极主动的重要性，暗示了在生活或工作中，那些愿意付出努力、抓住时机的人往往能够获得更好的结果。它鼓励人们要勤奋、积极，不要懒惰或拖延，以便在竞争中占据优势。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":63,"completion_tokens":76,"total_tokens":139},"system_fingerprint":""}</t>
-  </si>
-  <si>
-    <t>一个长10单位、宽4单位的矩形的面积是多少？</t>
-  </si>
-  <si>
-    <t>{"id":"0194e884639a42502ae9ac92216cbaf4","object":"chat.completion","created":1739067777,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"","tool_calls":[{"id":"0194e8846bda1a32b47da892cf9cca91","type":"function","function":{"name":"\u003cnumber\u003e","arguments":"10"}},{"id":"0194e8846bdac1502d9d5e9239d5d9b3","type":"function","function":{"name":"\u003cnumber\u003e","arguments":"4"}}]},"finish_reason":"tool_calls"}],"usage":{"prompt_tokens":65,"completion_tokens":29,"total_tokens":94},"system_fingerprint":""}</t>
+    <t>{"id":"0194e9631deb48d9a92bcd0196b39859","object":"chat.completion","created":1739082374,"model":"deepseek-ai/DeepSeek-V3","choices":[{"index":0,"message":{"role":"assistant","content":"现代物理学之父通常被认为是艾萨克·牛顿（Isaac Newton）。他通过其著作《自然哲学的数学原理》（Philosophiæ Naturalis Principia Mathematica）提出了万有引力定律和三大运动定律，为经典力学奠定了基础，对物理学的发展产生了深远的影响。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":58,"completion_tokens":55,"total_tokens":113},"system_fingerprint":""}</t>
+  </si>
+  <si>
+    <t>{"id":"0194e963331d76d0daed2370dfb6d72b","object":"chat.completion","created":1739082380,"model":"deepseek-ai/DeepSeek-R1-Distill-Llama-70B","choices":[{"index":0,"message":{"role":"assistant","content":"通常被称为“现代物理学之父”的是阿尔伯特·爱因斯坦（Albert Einstein）。爱因斯坦以其相对论（狭义相对论和广义相对论）以及著名的方程 \\( E = mc^2 \\) 而闻名。他的工作彻底改变了人类对时空、能量和物质的理解，并为20世纪的物理学发展奠定了基础。\n\n此外，像马克斯·普朗克（Max Planck）和尼","reasoning_content":"嗯，用户问的是谁被称为现代物理学之父。首先，我得确认这个问题的范围。现代物理学通常指的是从19世纪末到20世纪初，特别是相对论和量子力学时期的那些科学家。\n\n爱因斯坦是最常被提到的，他因为相对论，尤其是狭义和广义相对论，以及著名的E=mc²方程而闻名。他的工作彻底改变了我们对时空和能量的理解，所以很多人把他称为现代物理学之父。\n\n不过，我也记得普朗克和玻尔这些名字，他们在量子力学领域贡献很大。普朗克提出了量子假说，为量子力学打下了基础，而玻尔则提出了原子的结构模型。但相比之下，爱因斯坦的影响力可能更大，因为相对论不仅影响了物理学，还深刻影响了整个科学界和哲学思考。\n\n另外，还有其他科学家如洛伦兹、麦克斯韦，他们在电磁学方面做出了重要贡献，但可能不如爱因斯坦那么广为人知。而里曼、希尔伯特这些数学家虽然在理论物理中有重要作用，但可能不被普遍认为是“之父”这样的称号。\n\n所以，综合考虑，爱因斯坦应该是最常被称为现代物理学之父的人物。不过，也有时候人们会提到其他科学家，比如霍金，但霍金更多是在宇宙学领域，而不是开创现代物理学本身。\n\n总结一下，回答应该是爱因斯坦，同时可以稍微提一下其他可能被认为有类似贡献的人，但主要焦点还是爱因斯坦。"},"finish_reason":"length"}],"usage":{"prompt_tokens":15,"completion_tokens":512,"total_tokens":527},"system_fingerprint":""}</t>
+  </si>
+  <si>
+    <t>{"id":"0194e96438e4f849cf4842a4ef18e7d9","object":"chat.completion","created":1739082447,"model":"deepseek-ai/DeepSeek-R1-Distill-Qwen-14B","choices":[{"index":0,"message":{"role":"assistant","content":"阿尔伯特·爱因斯坦（Albert Einstein）通常被认为是**现代物理学之父**。他的相对论彻底改变了我们对时间、空间和引力的理解，并为20世纪的物理学奠定了基础。此外，他还提出了光子的概念和量子力学的基础思想之一（光电效应），为量子理论的发展做出了重要贡献。\n\n尽管牛顿被认为是经典力学的奠基者之一，但爱因斯坦的工作更直接地推动了现代物理学的发展，并对20世纪及以后的科学产生了深远影响。因此，爱因斯坦被广泛认为是“现代物理学之父”。","reasoning_content":"嗯，用户问谁被称为现代物理学之父。首先，我得确定这个问题的答案。现代物理学之父通常指的是谁呢？爱因斯坦肯定是其中之一，因为他提出了相对论，改变了我们对时空的理解。但还有其他可能吗？比如牛顿，他提出了运动定律和万有引力，对经典物理学影响深远。不过，用户特别提到的是现代物理学，所以可能更偏向于20世纪的人物。\n\n那爱因斯坦确实是现代物理学的重要人物，他的相对论不仅影响了物理学的发展，还为后来的量子力学和其他领域奠定了基础。另外，普朗克提出了量子假说，也是现代物理的重要基石之一。所以可能需要考虑这些因素。\n\n不过通常来说，爱因斯坦因为相对论和他广泛的影响，被更多人称为现代物理学之父。牛顿更偏向于经典力学的奠基人。所以我会倾向于回答爱因斯坦。\n\n接下来，我需要解释为什么他是这个称号的获得者。他的相对论如何改变了科学界？他解决了哪些问题？比如他如何解释了水星轨道异常和光线弯曲的现象，这些都验证了他的理论。\n\n另外，用户可能对这个称号的来源和背景感兴趣。所以我会提到他的贡献不仅在于理论本身，还包括他对科学方法和哲学的影响。他不仅是一位科学家，还是一个思想家。\n\n最后，总结一下爱因斯坦的重要性，并确认他的地位作为现代物理学之父是实至名归的。"},"finish_reason":"stop"}],"usage":{"prompt_tokens":12,"completion_tokens":419,"total_tokens":431},"system_fingerprint":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0194e963c6d0520b9b0680c6cddd03d6","object":"chat.completion","created":1739082417,"model":"deepseek-ai/DeepSeek-R1-Distill-Qwen-32B","choices":[{"index":0,"message":{"role":"assistant","content":"阿尔伯特·爱因斯坦（Albert Einstein）通常被称为“现代物理学之父”。他在20世纪初提出了相对论理论，并对量子力学的发展做出了重要贡献。他的工作彻底改变了我们对时间、空间、重力和能量的理解，并为现代物理学奠定了基础。\n\n### 主要贡献：\n1. **狭义相对论（1905年）**：提出了著名的质能等价公式 \\( E = mc^2 \\)，揭示了质量和能量之间的关系。\n2. **广义相对论（1915年）**：提出了引力是时空弯曲的结果的理论。\n3. **光电效应**：解释了光子的概念，并为此获得了诺贝尔物理学奖。\n4. **布朗运动**：为分子运动论提供了支持。\n\n### 为什么被称为“现代物理学之父”？\n- 爱因斯坦的工作标志着从经典物理学到现代物理学的转变。\n- 他的理论不仅在科学上具有革命性意义，在文化和社会中也产生了深远影响。\n- 相对论和量子力学共同构成了现代物理学的基础框架。\n\n因此，尽管其他科学家如马克斯·普","reasoning_content":"嗯，用户问的是“谁被称为现代物理学之父？”这个问题看起来挺直接的，但可能需要深入思考一下。首先，我得确认“现代物理学”指的是什么时期和领域。现代物理学通常指的是20世纪初开始的物理学发展，特别是相对论和量子力学的出现。\n\n爱因斯坦是首先想到的人，因为他提出了相对论，彻底改变了我们对时间、空间和引力的理解。他的E=mc²公式更是广为人知。不过，还有其他科学家如普朗克、玻尔、海森堡等在量子力学方面也有重要贡献。那为什么说爱因斯坦是“现代物理学之父”呢？\n\n可能是因为相对论的影响更为广泛，而且爱因斯坦的理论奠定了现代物理的基础。另外，爱因斯坦在科学界的地位和影响力确实很高，他的形象深入人心。当然，也有人可能会提到牛顿是经典力学之父，而现代物理学更多地与相对论和量子力学相关。\n\n另外，用户可能对这个称呼背后的原因感兴趣，所以需要解释为什么是爱因斯坦而不是其他人。可能还需要提到他的其他贡献，比如光电效应、布朗运动等，这些都对现代物理的发展有重要影响。\n\n总的来说，回答这个问题需要明确指出爱因斯坦，并解释他为何被称为现代物理学之父，包括他的主要贡献及其影响。"},"finish_reason":"length"}],"usage":{"prompt_tokens":12,"completion_tokens":512,"total_tokens":524},"system_fingerprint":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### 模型回答评分及分析
+1. **DeepSeek-V3**  
+   **评分：3/10**  
+   **分析**：回答错误地将艾萨克·牛顿认定为“现代物理学之父”。虽然牛顿是经典力学的奠基人，但“现代物理学”一般指相对论和量子力学后的物理学阶段，核心人物应为爱因斯坦。回答未区分“经典”与“现代”，存在关键事实错误。此外，内容简洁但缺乏针对性，未触及问题的核心。
+2. **DeepSeek-R1-Distill-Llama-70B**  
+   **评分：7/10**  
+   **分析**：正确回答爱因斯坦为现代物理学之父，并提及相对论和普朗克等科学家的贡献。推理过程详细，分析了时间范围（19世纪末至20世纪初）和量子力学的背景。但回答因截断未完整结束，且后半部分略显冗长，可能影响信息传达效率。
+3. **DeepSeek-R1-Distill-Qwen-32B**  
+   **评分：8/10**  
+   **分析**：明确指出爱因斯坦，并分点列出其贡献（相对论、光电效应等），结构清晰。推理部分深入探讨了现代物理学的定义和爱因斯坦的划时代意义，逻辑严密。但同样因截断未完整呈现内容，扣分点在此。
+4. **DeepSeek-R1-Distill-Qwen-14B**  
+   **评分：9/10**  
+   **分析**：回答最完整且精准。正确区分牛顿（经典）与爱因斯坦（现代），明确解释爱因斯坦因相对论和量子力学贡献获此称号。推理部分对比了多位科学家的角色，结论清晰有力，且无截断问题。语言简洁，信息密度高，兼顾专业性与可读性。
+--- 
+**总结**：  
+- **V3**因事实错误得分最低；  
+- **Llama-70B**和**Qwen-32B**回答正确但存在截断或冗长问题；  
+- **Qwen-14B**以完整内容、精准对比和逻辑性胜出，为最佳回答。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,16 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,181 +447,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="78" style="3" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="72.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:6" ht="75">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="135">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="328">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:6" ht="409" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="180">
-      <c r="A5" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="285">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="105">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="150">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="90">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="225">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="285">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="356">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="398">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="105">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="314">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="120">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
